--- a/xlsx/all/median_maritime_split.xlsx
+++ b/xlsx/all/median_maritime_split.xlsx
@@ -17,9 +17,9 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Mean preferred allocation for
+    <t xml:space="preserve">Median preferred allocation for
 global maritime levy revenue
-(3,000 respondents from Poland, UK &amp; U.S.)</t>
+(3,018 respondents from Poland, UK &amp; U.S.)</t>
   </si>
   <si>
     <t xml:space="preserve">Decarbonized fuels &amp; ships</t>
@@ -373,7 +373,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.369790879459605</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -381,7 +381,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.32472212476171</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -389,7 +389,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.305486995778685</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
